--- a/AMBIENTE DE TESTES.xlsx
+++ b/AMBIENTE DE TESTES.xlsx
@@ -962,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5948,10 +5948,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="E191" s="0" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
+      <c r="E191" s="0" t="n">
+        <v>59</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
@@ -5986,6 +5984,68 @@
       <c r="F192" s="0" t="inlineStr">
         <is>
           <t>sadadsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>teste5</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>teste5.com.br</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>Não padronizado</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F193" s="0" t="inlineStr">
+        <is>
+          <t>testando</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>testes65</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>stees.com.br</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>Com erro</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>dual</t>
         </is>
       </c>
     </row>
